--- a/output/CodeSystem-isced-1997-education.xlsx
+++ b/output/CodeSystem-isced-1997-education.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-30T17:25:25+07:00</t>
+    <t>2022-07-30T19:26:14+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
